--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neerajkumar/stockanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD7327-D43C-0446-A0E0-16ED589F6818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139A9287-C40E-824C-A571-F97BE9F48928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="201">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -620,6 +620,24 @@
   </si>
   <si>
     <t>NESCO</t>
+  </si>
+  <si>
+    <t>CAMS</t>
+  </si>
+  <si>
+    <t>NAUKRI</t>
+  </si>
+  <si>
+    <t>RAJESHEXPO</t>
+  </si>
+  <si>
+    <t>ASHOKLEY</t>
+  </si>
+  <si>
+    <t>MANAPPURAM</t>
+  </si>
+  <si>
+    <t>NYKAA</t>
   </si>
 </sst>
 </file>
@@ -971,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2487,6 +2505,54 @@
         <v>51</v>
       </c>
     </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>195</v>
+      </c>
+      <c r="B189" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>196</v>
+      </c>
+      <c r="B190" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>200</v>
+      </c>
+      <c r="B191" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B51" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">

--- a/RESULT  ANALYSIS.xlsx
+++ b/RESULT  ANALYSIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neerajkumar/stockanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139A9287-C40E-824C-A571-F97BE9F48928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163FFDB8-F211-774F-8A47-FF70DED876BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{D0B1D84E-FF7B-437F-827A-36FDC6E47B9C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="186">
   <si>
     <t>SYMBLE</t>
   </si>
@@ -73,9 +73,6 @@
     <t>TATACOFFEE</t>
   </si>
   <si>
-    <t>CRAFTSMAN</t>
-  </si>
-  <si>
     <t>HINDUNILVR</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>BIOCON</t>
   </si>
   <si>
-    <t>IEX</t>
-  </si>
-  <si>
     <t>TRIDENT</t>
   </si>
   <si>
@@ -298,9 +292,6 @@
     <t>DEEPAKNI</t>
   </si>
   <si>
-    <t>HAPPSTMNDS-BE</t>
-  </si>
-  <si>
     <t>ITC</t>
   </si>
   <si>
@@ -346,9 +337,6 @@
     <t>BLUESTARCO</t>
   </si>
   <si>
-    <t>CHEMCON</t>
-  </si>
-  <si>
     <t>COROMANDEL</t>
   </si>
   <si>
@@ -373,9 +361,6 @@
     <t>TATAPOWER</t>
   </si>
   <si>
-    <t>UTIAMC</t>
-  </si>
-  <si>
     <t>WESTLIFE</t>
   </si>
   <si>
@@ -421,15 +406,9 @@
     <t>VOLTAS</t>
   </si>
   <si>
-    <t>ROSSARI</t>
-  </si>
-  <si>
     <t>NEOGEN</t>
   </si>
   <si>
-    <t>IPL</t>
-  </si>
-  <si>
     <t>FINOLEXIND</t>
   </si>
   <si>
@@ -448,12 +427,6 @@
     <t>DABUR</t>
   </si>
   <si>
-    <t>EASEMYTRIP-BE</t>
-  </si>
-  <si>
-    <t>LXCHEM</t>
-  </si>
-  <si>
     <t>PGHH</t>
   </si>
   <si>
@@ -532,9 +505,6 @@
     <t>NGLFINE</t>
   </si>
   <si>
-    <t>NUVOCO</t>
-  </si>
-  <si>
     <t>PIDILITIND</t>
   </si>
   <si>
@@ -547,9 +517,6 @@
     <t>WONDERLA</t>
   </si>
   <si>
-    <t>ZOMOTO</t>
-  </si>
-  <si>
     <t>GODREJCP</t>
   </si>
   <si>
@@ -574,9 +541,6 @@
     <t>ASTRAL</t>
   </si>
   <si>
-    <t>RITES</t>
-  </si>
-  <si>
     <t>IDEA</t>
   </si>
   <si>
@@ -610,9 +574,6 @@
     <t>AMARAJABAT</t>
   </si>
   <si>
-    <t>CLEAN</t>
-  </si>
-  <si>
     <t>HEROMOTOCO</t>
   </si>
   <si>
@@ -622,9 +583,6 @@
     <t>NESCO</t>
   </si>
   <si>
-    <t>CAMS</t>
-  </si>
-  <si>
     <t>NAUKRI</t>
   </si>
   <si>
@@ -635,9 +593,6 @@
   </si>
   <si>
     <t>MANAPPURAM</t>
-  </si>
-  <si>
-    <t>NYKAA</t>
   </si>
 </sst>
 </file>
@@ -989,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-  <dimension ref="A1:B194"/>
+  <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1014,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1022,7 +977,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1030,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1038,15 +993,15 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1054,7 +1009,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1062,7 +1017,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1070,28 +1025,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
@@ -1099,10 +1054,10 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1118,7 +1073,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1126,7 +1081,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1134,7 +1089,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1142,7 +1097,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1150,7 +1105,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1158,7 +1113,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1166,7 +1121,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1174,7 +1129,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1182,12 +1137,12 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>51</v>
@@ -1195,18 +1150,18 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1222,7 +1177,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1238,7 +1193,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1246,7 +1201,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1254,7 +1209,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1278,7 +1233,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1302,7 +1257,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1310,7 +1265,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1318,7 +1273,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1326,7 +1281,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1334,7 +1289,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1342,7 +1297,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1350,7 +1305,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1358,7 +1313,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1366,7 +1321,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1374,7 +1329,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1382,7 +1337,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1390,23 +1345,23 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
         <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1414,7 +1369,7 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1422,7 +1377,7 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1446,7 +1401,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1454,7 +1409,7 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1478,7 +1433,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1486,7 +1441,7 @@
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1494,7 +1449,7 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1510,7 +1465,7 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1518,7 +1473,7 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1526,7 +1481,7 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1534,7 +1489,7 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1542,7 +1497,7 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1558,7 +1513,7 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1566,7 +1521,7 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1574,7 +1529,7 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1582,7 +1537,7 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1590,7 +1545,7 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1598,7 +1553,7 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1606,7 +1561,7 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1614,7 +1569,7 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1622,7 +1577,7 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1630,7 +1585,7 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1638,7 +1593,7 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1646,7 +1601,7 @@
         <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1654,7 +1609,7 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1670,7 +1625,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1678,7 +1633,7 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1686,7 +1641,7 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1694,7 +1649,7 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1702,7 +1657,7 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1718,7 +1673,7 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1726,7 +1681,7 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1742,7 +1697,7 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1750,7 +1705,7 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1758,7 +1713,7 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1766,7 +1721,7 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1774,7 +1729,7 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1782,7 +1737,7 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1790,7 +1745,7 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1798,7 +1753,7 @@
         <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1806,7 +1761,7 @@
         <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1822,7 +1777,7 @@
         <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1830,7 +1785,7 @@
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1838,47 +1793,47 @@
         <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1886,7 +1841,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1894,7 +1849,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1902,7 +1857,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1910,7 +1865,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1918,7 +1873,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1934,7 +1889,7 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1942,7 +1897,7 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1950,7 +1905,7 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1958,7 +1913,7 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1966,7 +1921,7 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1982,7 +1937,7 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1990,7 +1945,7 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -1998,7 +1953,7 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -2006,7 +1961,7 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -2014,7 +1969,7 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -2022,7 +1977,7 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -2030,7 +1985,7 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -2038,7 +1993,7 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -2046,7 +2001,7 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -2054,7 +2009,7 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -2062,7 +2017,7 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -2070,7 +2025,7 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -2078,7 +2033,7 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -2086,7 +2041,7 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -2094,7 +2049,7 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -2102,7 +2057,7 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -2110,31 +2065,31 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B141" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2142,7 +2097,7 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2150,28 +2105,28 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B145" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B146" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B147" t="s">
         <v>53</v>
@@ -2179,18 +2134,18 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B148" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B149" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2206,20 +2161,20 @@
         <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B152" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153" t="s">
         <v>51</v>
@@ -2227,7 +2182,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B154" t="s">
         <v>51</v>
@@ -2238,7 +2193,7 @@
         <v>160</v>
       </c>
       <c r="B155" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -2246,7 +2201,7 @@
         <v>161</v>
       </c>
       <c r="B156" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -2254,7 +2209,7 @@
         <v>162</v>
       </c>
       <c r="B157" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -2262,7 +2217,7 @@
         <v>163</v>
       </c>
       <c r="B158" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -2270,12 +2225,12 @@
         <v>164</v>
       </c>
       <c r="B159" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B160" t="s">
         <v>53</v>
@@ -2283,82 +2238,82 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -2366,7 +2321,7 @@
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -2374,7 +2329,7 @@
         <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -2382,7 +2337,7 @@
         <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -2390,7 +2345,7 @@
         <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -2398,7 +2353,7 @@
         <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -2406,7 +2361,7 @@
         <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -2414,7 +2369,7 @@
         <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -2422,7 +2377,7 @@
         <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -2430,133 +2385,13 @@
         <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>186</v>
-      </c>
-      <c r="B180" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>187</v>
-      </c>
-      <c r="B181" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>188</v>
-      </c>
-      <c r="B182" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>189</v>
-      </c>
-      <c r="B183" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>190</v>
-      </c>
-      <c r="B184" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>191</v>
-      </c>
-      <c r="B185" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>192</v>
-      </c>
-      <c r="B186" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>193</v>
-      </c>
-      <c r="B187" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>194</v>
-      </c>
-      <c r="B188" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>195</v>
-      </c>
-      <c r="B189" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>196</v>
-      </c>
-      <c r="B190" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>200</v>
-      </c>
-      <c r="B191" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>197</v>
-      </c>
-      <c r="B192" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>198</v>
-      </c>
-      <c r="B193" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>199</v>
-      </c>
-      <c r="B194" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B51" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
-      <sortCondition ref="B1:B39"/>
+  <autoFilter ref="A1:B49" xr:uid="{D390358F-22BC-41BF-B31B-F4145C4653C1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+      <sortCondition ref="B1:B37"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
